--- a/Kohler.xlsx
+++ b/Kohler.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="49">
   <si>
     <t>Testcase</t>
   </si>
@@ -169,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="260" x14ac:knownFonts="1">
+  <fonts count="273" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1730,8 +1730,86 @@
       <b val="true"/>
       <color indexed="17"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="17"/>
+    </font>
   </fonts>
-  <fills count="390">
+  <fills count="410">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3264,6 +3342,106 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -3688,7 +3866,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4472,6 +4650,45 @@
       <alignment wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="259" fillId="389" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="391" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="393" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="394" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="396" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="397" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="399" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="400" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="402" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="403" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="405" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="406" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="408" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="409" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5008,7 +5225,7 @@
       <c r="C2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s" s="254">
+      <c r="D2" t="s" s="267">
         <v>11</v>
       </c>
     </row>
@@ -5102,10 +5319,10 @@
       <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s" s="256">
+      <c r="H3" t="s" s="269">
         <v>35</v>
       </c>
-      <c r="I3" t="s" s="255">
+      <c r="I3" t="s" s="268">
         <v>11</v>
       </c>
     </row>
@@ -5128,10 +5345,10 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s" s="258">
+      <c r="H4" t="s" s="271">
         <v>35</v>
       </c>
-      <c r="I4" t="s" s="257">
+      <c r="I4" t="s" s="270">
         <v>11</v>
       </c>
     </row>
@@ -5157,10 +5374,10 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="273">
         <v>35</v>
       </c>
-      <c r="I5" t="s" s="259">
+      <c r="I5" t="s" s="272">
         <v>11</v>
       </c>
     </row>
@@ -5183,10 +5400,10 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s" s="262">
+      <c r="H6" t="s" s="275">
         <v>35</v>
       </c>
-      <c r="I6" t="s" s="261">
+      <c r="I6" t="s" s="274">
         <v>11</v>
       </c>
     </row>
@@ -5212,10 +5429,10 @@
       <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s" s="264">
+      <c r="H7" t="s" s="277">
         <v>35</v>
       </c>
-      <c r="I7" t="s" s="263">
+      <c r="I7" t="s" s="276">
         <v>11</v>
       </c>
     </row>
@@ -5238,10 +5455,10 @@
       <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s" s="266">
+      <c r="H8" t="s" s="279">
         <v>35</v>
       </c>
-      <c r="I8" t="s" s="265">
+      <c r="I8" t="s" s="278">
         <v>11</v>
       </c>
     </row>
